--- a/ocms/src/test/resources/DownloadedFiles/Agent Aux Codes.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Agent Aux Codes.xlsx
@@ -130,13 +130,13 @@
     <t xml:space="preserve">19/03/2021 02:55:24</t>
   </si>
   <si>
-    <t xml:space="preserve">AuxCodesUpdate</t>
+    <t xml:space="preserve">Dell</t>
   </si>
   <si>
     <t xml:space="preserve">abcd</t>
   </si>
   <si>
-    <t xml:space="preserve">29/07/2021 09:44:59</t>
+    <t xml:space="preserve">09/08/2021 17:49:37</t>
   </si>
 </sst>
 </file>
@@ -471,10 +471,10 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>39</v>
